--- a/Data of bank.xlsx
+++ b/Data of bank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,9 @@
       <c r="E3" s="1">
         <v>73782</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3" s="2">
         <v>-5.46</v>
       </c>
@@ -553,7 +555,9 @@
       <c r="E4" s="1">
         <v>80405</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4" s="2">
         <v>-0.49</v>
       </c>
@@ -583,7 +587,9 @@
       <c r="E5" s="1">
         <v>88211</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5">
+        <v>8.07</v>
+      </c>
       <c r="G5" s="2">
         <v>5.26</v>
       </c>
@@ -613,7 +619,9 @@
       <c r="E6" s="1">
         <v>103480</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6">
+        <v>7.21</v>
+      </c>
       <c r="G6" s="2">
         <v>7.8</v>
       </c>
@@ -643,7 +651,9 @@
       <c r="E7" s="1">
         <v>112057</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7">
+        <v>6.13</v>
+      </c>
       <c r="G7" s="2">
         <v>11.41</v>
       </c>
@@ -673,7 +683,9 @@
       <c r="E8" s="1">
         <v>133467</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8">
+        <v>6.29</v>
+      </c>
       <c r="G8" s="2">
         <v>15.61</v>
       </c>
@@ -703,8 +715,15 @@
       <c r="E9" s="1">
         <v>171516</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="F9">
+        <v>7.03</v>
+      </c>
+      <c r="G9" s="2">
+        <v>18.02</v>
+      </c>
+      <c r="H9">
+        <v>2.91</v>
+      </c>
       <c r="I9" s="1">
         <v>95725</v>
       </c>
@@ -725,7 +744,9 @@
       <c r="E10" s="1">
         <v>191163</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10">
+        <v>7.98</v>
+      </c>
       <c r="G10" s="2">
         <v>17.41</v>
       </c>
@@ -752,7 +773,9 @@
       <c r="E11" s="1">
         <v>222645</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11">
+        <v>6.99</v>
+      </c>
       <c r="G11" s="2">
         <v>16.68</v>
       </c>
@@ -779,7 +802,9 @@
       <c r="E12" s="1">
         <v>200078</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12">
+        <v>5.73</v>
+      </c>
       <c r="G12" s="2">
         <v>17.91</v>
       </c>
@@ -806,7 +831,9 @@
       <c r="E13" s="1">
         <v>105715</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13">
+        <v>9.8699999999999992</v>
+      </c>
       <c r="G13" s="2">
         <v>-9.35</v>
       </c>
@@ -833,7 +860,9 @@
       <c r="E14" s="1">
         <v>122558</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14">
+        <v>9.65</v>
+      </c>
       <c r="G14" s="2">
         <v>3.33</v>
       </c>
@@ -860,7 +889,9 @@
       <c r="E15" s="1">
         <v>139561</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15">
+        <v>8.5399999999999991</v>
+      </c>
       <c r="G15" s="2">
         <v>5.6</v>
       </c>
@@ -887,7 +918,9 @@
       <c r="E16" s="1">
         <v>166432</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16">
+        <v>7.32</v>
+      </c>
       <c r="G16" s="2">
         <v>10.34</v>
       </c>
@@ -914,7 +947,9 @@
       <c r="E17" s="1">
         <v>173545</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17">
+        <v>6.07</v>
+      </c>
       <c r="G17" s="2">
         <v>11.21</v>
       </c>
@@ -941,7 +976,9 @@
       <c r="E18" s="1">
         <v>197332</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18">
+        <v>6.53</v>
+      </c>
       <c r="G18" s="2">
         <v>11.83</v>
       </c>
@@ -968,8 +1005,15 @@
       <c r="E19" s="1">
         <v>230517</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
+      <c r="F19">
+        <v>6.2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>12.34</v>
+      </c>
+      <c r="H19">
+        <v>2.9</v>
+      </c>
       <c r="I19" s="1">
         <v>149009</v>
       </c>
@@ -990,7 +1034,9 @@
       <c r="E20" s="1">
         <v>266766</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20">
+        <v>5.5</v>
+      </c>
       <c r="G20" s="2">
         <v>13.19</v>
       </c>
@@ -1017,7 +1063,9 @@
       <c r="E21" s="1">
         <v>309987</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21">
+        <v>5.5</v>
+      </c>
       <c r="G21" s="2">
         <v>12.68</v>
       </c>
@@ -1044,7 +1092,9 @@
       <c r="E22" s="1">
         <v>330242</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22">
+        <v>5.41</v>
+      </c>
       <c r="G22" s="2">
         <v>14.31</v>
       </c>
@@ -1071,7 +1121,9 @@
       <c r="E23" s="1">
         <v>45637</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23">
+        <v>9.67</v>
+      </c>
       <c r="G23" s="2">
         <v>16.28</v>
       </c>
@@ -1098,7 +1150,9 @@
       <c r="E24" s="1">
         <v>53324</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24">
+        <v>9.75</v>
+      </c>
       <c r="G24" s="2">
         <v>14.48</v>
       </c>
@@ -1125,7 +1179,9 @@
       <c r="E25" s="1">
         <v>64927</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25">
+        <v>8.73</v>
+      </c>
       <c r="G25" s="2">
         <v>14.3</v>
       </c>
@@ -1152,7 +1208,9 @@
       <c r="E26" s="1">
         <v>65186</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26">
+        <v>7.61</v>
+      </c>
       <c r="G26" s="2">
         <v>13.89</v>
       </c>
@@ -1179,7 +1237,9 @@
       <c r="E27" s="1">
         <v>77409</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27">
+        <v>4.47</v>
+      </c>
       <c r="G27" s="2">
         <v>15.89</v>
       </c>
@@ -1206,7 +1266,9 @@
       <c r="E28" s="1">
         <v>84032</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28">
+        <v>6.47</v>
+      </c>
       <c r="G28" s="2">
         <v>22.04</v>
       </c>
@@ -1233,8 +1295,15 @@
       <c r="E29" s="1">
         <v>93264</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
+      <c r="F29">
+        <v>7.87</v>
+      </c>
+      <c r="G29" s="2">
+        <v>22.68</v>
+      </c>
+      <c r="H29">
+        <v>0.21</v>
+      </c>
       <c r="I29" s="1">
         <v>55634</v>
       </c>
@@ -1255,7 +1324,9 @@
       <c r="E30" s="1">
         <v>116438</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30">
+        <v>7.63</v>
+      </c>
       <c r="G30" s="2">
         <v>19.899999999999999</v>
       </c>
@@ -1282,7 +1353,9 @@
       <c r="E31" s="1">
         <v>114739</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31">
+        <v>7</v>
+      </c>
       <c r="G31" s="2">
         <v>18.54</v>
       </c>
@@ -1309,7 +1382,9 @@
       <c r="E32" s="1">
         <v>123356</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32">
+        <v>5.51</v>
+      </c>
       <c r="G32" s="2">
         <v>17.170000000000002</v>
       </c>
@@ -1336,7 +1411,9 @@
       <c r="E33" s="1">
         <v>64796</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33">
+        <v>7.3</v>
+      </c>
       <c r="G33" s="2">
         <v>11.37</v>
       </c>
@@ -1363,7 +1440,9 @@
       <c r="E34" s="1">
         <v>61083</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34">
+        <v>7.63</v>
+      </c>
       <c r="G34" s="2">
         <v>12.86</v>
       </c>
@@ -1390,7 +1469,9 @@
       <c r="E35" s="1">
         <v>59277</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35">
+        <v>8.7799999999999994</v>
+      </c>
       <c r="G35" s="2">
         <v>13.7</v>
       </c>
@@ -1417,7 +1498,9 @@
       <c r="E36" s="1">
         <v>78515</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36">
+        <v>7.71</v>
+      </c>
       <c r="G36" s="2">
         <v>13.34</v>
       </c>
@@ -1444,7 +1527,9 @@
       <c r="E37" s="1">
         <v>99829</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37">
+        <v>5.97</v>
+      </c>
       <c r="G37" s="2">
         <v>13.54</v>
       </c>
@@ -1471,7 +1556,9 @@
       <c r="E38" s="1">
         <v>102539</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38">
+        <v>8.98</v>
+      </c>
       <c r="G38" s="2">
         <v>15.76</v>
       </c>
@@ -1498,8 +1585,15 @@
       <c r="E39" s="1">
         <v>118314</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="2"/>
+      <c r="F39">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="G39" s="2">
+        <v>14.51</v>
+      </c>
+      <c r="H39">
+        <v>0.13</v>
+      </c>
       <c r="I39" s="1">
         <v>88645</v>
       </c>
@@ -1520,7 +1614,9 @@
       <c r="E40" s="1">
         <v>116438</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40">
+        <v>9.7200000000000006</v>
+      </c>
       <c r="G40" s="2">
         <v>14.01</v>
       </c>
@@ -1547,7 +1643,9 @@
       <c r="E41" s="1">
         <v>114739</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41">
+        <v>9.25</v>
+      </c>
       <c r="G41" s="2">
         <v>15.42</v>
       </c>
@@ -1574,7 +1672,9 @@
       <c r="E42" s="1">
         <v>123356</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42">
+        <v>7.37</v>
+      </c>
       <c r="G42" s="2">
         <v>13.93</v>
       </c>
@@ -1601,7 +1701,9 @@
       <c r="E43" s="1">
         <v>65741</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43">
+        <v>7.03</v>
+      </c>
       <c r="G43" s="2">
         <v>11.08</v>
       </c>
@@ -1628,7 +1730,9 @@
       <c r="E44" s="1">
         <v>70445</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44">
+        <v>7.16</v>
+      </c>
       <c r="G44" s="2">
         <v>13.22</v>
       </c>
@@ -1655,7 +1759,9 @@
       <c r="E45" s="1">
         <v>99153</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45">
+        <v>6.4</v>
+      </c>
       <c r="G45" s="2">
         <v>12.89</v>
       </c>
@@ -1682,7 +1788,9 @@
       <c r="E46" s="1">
         <v>113885</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46">
+        <v>6.14</v>
+      </c>
       <c r="G46" s="2">
         <v>13.32</v>
       </c>
@@ -1709,7 +1817,9 @@
       <c r="E47" s="1">
         <v>116510</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47">
+        <v>4.8600000000000003</v>
+      </c>
       <c r="G47" s="2">
         <v>12.79</v>
       </c>
@@ -1736,7 +1846,9 @@
       <c r="E48" s="1">
         <v>144811</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48">
+        <v>7.68</v>
+      </c>
       <c r="G48" s="2">
         <v>14.85</v>
       </c>
@@ -1763,8 +1875,15 @@
       <c r="E49" s="1">
         <v>170078</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="2"/>
+      <c r="F49">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G49" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="H49">
+        <v>0.23</v>
+      </c>
       <c r="I49" s="1">
         <v>112007</v>
       </c>
@@ -1785,7 +1904,9 @@
       <c r="E50" s="1">
         <v>185023</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50">
+        <v>8.1199999999999992</v>
+      </c>
       <c r="G50" s="2">
         <v>13.75</v>
       </c>
@@ -1812,7 +1933,9 @@
       <c r="E51" s="1">
         <v>211650</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51">
+        <v>8.0500000000000007</v>
+      </c>
       <c r="G51" s="2">
         <v>13.32</v>
       </c>
@@ -1839,7 +1962,9 @@
       <c r="E52" s="1">
         <v>225381</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52">
+        <v>5.99</v>
+      </c>
       <c r="G52" s="2">
         <v>12.51</v>
       </c>
@@ -1866,7 +1991,9 @@
       <c r="E53" s="1">
         <v>46535</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53">
+        <v>8.01</v>
+      </c>
       <c r="G53" s="2">
         <v>12.85</v>
       </c>
@@ -1893,7 +2020,9 @@
       <c r="E54" s="1">
         <v>51500</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54">
+        <v>8.0299999999999994</v>
+      </c>
       <c r="G54" s="2">
         <v>14.37</v>
       </c>
@@ -1920,7 +2049,9 @@
       <c r="E55" s="1">
         <v>60519</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55">
+        <v>7.88</v>
+      </c>
       <c r="G55" s="2">
         <v>14.89</v>
       </c>
@@ -1947,7 +2078,9 @@
       <c r="E56" s="1">
         <v>80456</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56">
+        <v>7.96</v>
+      </c>
       <c r="G56" s="2">
         <v>13.16</v>
       </c>
@@ -1974,7 +2107,9 @@
       <c r="E57" s="1">
         <v>99274</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57">
+        <v>6.44</v>
+      </c>
       <c r="G57" s="2">
         <v>12.66</v>
       </c>
@@ -2001,7 +2136,9 @@
       <c r="E58" s="1">
         <v>170943</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58">
+        <v>11.27</v>
+      </c>
       <c r="G58" s="2">
         <v>13.95</v>
       </c>
@@ -2028,8 +2165,15 @@
       <c r="E59" s="1">
         <v>217702</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="2"/>
+      <c r="F59">
+        <v>11.5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>13.03</v>
+      </c>
+      <c r="H59">
+        <v>0.22</v>
+      </c>
       <c r="I59" s="1">
         <v>149506</v>
       </c>
@@ -2050,7 +2194,9 @@
       <c r="E60" s="1">
         <v>250590</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60">
+        <v>9.48</v>
+      </c>
       <c r="G60" s="2">
         <v>13.28</v>
       </c>
@@ -2077,7 +2223,9 @@
       <c r="E61" s="1">
         <v>346148</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61">
+        <v>7.7</v>
+      </c>
       <c r="G61" s="2">
         <v>13.16</v>
       </c>
@@ -2104,7 +2252,9 @@
       <c r="E62" s="1">
         <v>358570</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62">
+        <v>6.84</v>
+      </c>
       <c r="G62" s="2">
         <v>12.41</v>
       </c>
@@ -2131,7 +2281,9 @@
       <c r="E63" s="1">
         <v>30296</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63">
+        <v>10.130000000000001</v>
+      </c>
       <c r="G63" s="2">
         <v>14.6</v>
       </c>
@@ -2158,7 +2310,9 @@
       <c r="E64" s="1">
         <v>40724</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64">
+        <v>10.26</v>
+      </c>
       <c r="G64" s="2">
         <v>12.66</v>
       </c>
@@ -2185,7 +2339,9 @@
       <c r="E65" s="1">
         <v>48753</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65">
+        <v>8.25</v>
+      </c>
       <c r="G65" s="2">
         <v>10.38</v>
       </c>
@@ -2212,7 +2368,9 @@
       <c r="E66" s="1">
         <v>59455</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66">
+        <v>7.69</v>
+      </c>
       <c r="G66" s="2">
         <v>12.47</v>
       </c>
@@ -2239,7 +2397,9 @@
       <c r="E67" s="1">
         <v>68926</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67">
+        <v>6.18</v>
+      </c>
       <c r="G67" s="2">
         <v>12.23</v>
       </c>
@@ -2266,7 +2426,9 @@
       <c r="E68" s="1">
         <v>61377</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68">
+        <v>10.29</v>
+      </c>
       <c r="G68" s="2">
         <v>17.78</v>
       </c>
@@ -2293,8 +2455,15 @@
       <c r="E69" s="1">
         <v>105246</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="2"/>
+      <c r="F69">
+        <v>11.06</v>
+      </c>
+      <c r="G69" s="2">
+        <v>15.72</v>
+      </c>
+      <c r="H69">
+        <v>0.35</v>
+      </c>
       <c r="I69" s="1">
         <v>77536</v>
       </c>
@@ -2315,7 +2484,9 @@
       <c r="E70" s="1">
         <v>124520</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70">
+        <v>10.37</v>
+      </c>
       <c r="G70" s="2">
         <v>12.88</v>
       </c>
@@ -2342,7 +2513,9 @@
       <c r="E71" s="1">
         <v>158214</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71">
+        <v>9.2100000000000009</v>
+      </c>
       <c r="G71" s="2">
         <v>13</v>
       </c>
@@ -2369,7 +2542,9 @@
       <c r="E72" s="1">
         <v>178727</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72">
+        <v>7.26</v>
+      </c>
       <c r="G72" s="2">
         <v>12</v>
       </c>
@@ -2396,7 +2571,9 @@
       <c r="E73" s="1">
         <v>33691</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F73">
+        <v>10.119999999999999</v>
+      </c>
       <c r="G73" s="2">
         <v>11.47</v>
       </c>
@@ -2423,7 +2600,9 @@
       <c r="E74" s="1">
         <v>40278</v>
       </c>
-      <c r="F74" s="1"/>
+      <c r="F74">
+        <v>10.25</v>
+      </c>
       <c r="G74" s="2">
         <v>12.28</v>
       </c>
@@ -2450,7 +2629,9 @@
       <c r="E75" s="1">
         <v>50647</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75">
+        <v>8.81</v>
+      </c>
       <c r="G75" s="2">
         <v>12.22</v>
       </c>
@@ -2477,7 +2658,9 @@
       <c r="E76" s="1">
         <v>74403</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76">
+        <v>7.87</v>
+      </c>
       <c r="G76" s="2">
         <v>11.17</v>
       </c>
@@ -2504,7 +2687,9 @@
       <c r="E77" s="1">
         <v>89902</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77">
+        <v>6.65</v>
+      </c>
       <c r="G77" s="2">
         <v>11.27</v>
       </c>
@@ -2531,7 +2716,9 @@
       <c r="E78" s="1">
         <v>119869</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78">
+        <v>10.38</v>
+      </c>
       <c r="G78" s="2">
         <v>13.16</v>
       </c>
@@ -2558,8 +2745,15 @@
       <c r="E79" s="1">
         <v>144480</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="2"/>
+      <c r="F79">
+        <v>11.16</v>
+      </c>
+      <c r="G79" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="H79">
+        <v>1.31</v>
+      </c>
       <c r="I79" s="1">
         <v>108164</v>
       </c>
@@ -2580,7 +2774,9 @@
       <c r="E80" s="1">
         <v>170585</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80">
+        <v>10.57</v>
+      </c>
       <c r="G80" s="2">
         <v>12.49</v>
       </c>
@@ -2607,7 +2803,9 @@
       <c r="E81" s="1">
         <v>228942</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="G81" s="2">
         <v>12.97</v>
       </c>
@@ -2634,7 +2832,9 @@
       <c r="E82" s="1">
         <v>264327</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82">
+        <v>7.16</v>
+      </c>
       <c r="G82" s="2">
         <v>13.45</v>
       </c>
@@ -2661,7 +2861,9 @@
       <c r="E83" s="1">
         <v>82160</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83">
+        <v>10.23</v>
+      </c>
       <c r="G83" s="2">
         <v>18.25</v>
       </c>
@@ -2688,7 +2890,9 @@
       <c r="E84" s="1">
         <v>86512</v>
       </c>
-      <c r="F84" s="1"/>
+      <c r="F84">
+        <v>10.34</v>
+      </c>
       <c r="G84" s="2">
         <v>17.89</v>
       </c>
@@ -2715,7 +2919,9 @@
       <c r="E85" s="1">
         <v>100887</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85">
+        <v>8.64</v>
+      </c>
       <c r="G85" s="2">
         <v>15.17</v>
       </c>
@@ -2742,7 +2948,9 @@
       <c r="E86" s="1">
         <v>111785</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86">
+        <v>7.83</v>
+      </c>
       <c r="G86" s="2">
         <v>12.55</v>
       </c>
@@ -2769,7 +2977,9 @@
       <c r="E87" s="1">
         <v>126867</v>
       </c>
-      <c r="F87" s="1"/>
+      <c r="F87">
+        <v>9.7200000000000006</v>
+      </c>
       <c r="G87" s="2">
         <v>12.84</v>
       </c>
@@ -2796,7 +3006,9 @@
       <c r="E88" s="1">
         <v>135420</v>
       </c>
-      <c r="F88" s="1"/>
+      <c r="F88">
+        <v>11.27</v>
+      </c>
       <c r="G88" s="2">
         <v>17.47</v>
       </c>
@@ -2823,8 +3035,15 @@
       <c r="E89" s="1">
         <v>151458</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="2"/>
+      <c r="F89">
+        <v>11.73</v>
+      </c>
+      <c r="G89" s="2">
+        <v>20.83</v>
+      </c>
+      <c r="H89">
+        <v>3.49</v>
+      </c>
       <c r="I89" s="1">
         <v>110092</v>
       </c>
@@ -2845,7 +3064,9 @@
       <c r="E90" s="1">
         <v>179321</v>
       </c>
-      <c r="F90" s="1"/>
+      <c r="F90">
+        <v>10.58</v>
+      </c>
       <c r="G90" s="2">
         <v>20.309999999999999</v>
       </c>
@@ -2872,7 +3093,9 @@
       <c r="E91" s="1">
         <v>222440</v>
       </c>
-      <c r="F91" s="1"/>
+      <c r="F91">
+        <v>9.26</v>
+      </c>
       <c r="G91" s="2">
         <v>20.46</v>
       </c>
@@ -2899,7 +3122,9 @@
       <c r="E92" s="1">
         <v>246184</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92">
+        <v>7.13</v>
+      </c>
       <c r="G92" s="2">
         <v>23.31</v>
       </c>
@@ -2926,7 +3151,9 @@
       <c r="E93" s="1">
         <v>25980</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93">
+        <v>8.92</v>
+      </c>
       <c r="G93" s="2">
         <v>15.54</v>
       </c>
@@ -2953,7 +3180,9 @@
       <c r="E94" s="1">
         <v>32222</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94">
+        <v>9.7200000000000006</v>
+      </c>
       <c r="G94" s="2">
         <v>13.58</v>
       </c>
@@ -2980,7 +3209,9 @@
       <c r="E95" s="1">
         <v>41493</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95">
+        <v>8.16</v>
+      </c>
       <c r="G95" s="2">
         <v>13.64</v>
       </c>
@@ -3007,7 +3238,9 @@
       <c r="E96" s="1">
         <v>55062</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96">
+        <v>7.3</v>
+      </c>
       <c r="G96" s="2">
         <v>13.35</v>
       </c>
@@ -3034,7 +3267,9 @@
       <c r="E97" s="1">
         <v>65405</v>
       </c>
-      <c r="F97" s="1"/>
+      <c r="F97">
+        <v>6.05</v>
+      </c>
       <c r="G97" s="2">
         <v>13.37</v>
       </c>
@@ -3061,7 +3296,9 @@
       <c r="E98" s="1">
         <v>77710</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98">
+        <v>11.17</v>
+      </c>
       <c r="G98" s="2">
         <v>16.91</v>
       </c>
@@ -3088,8 +3325,15 @@
       <c r="E99" s="1">
         <v>90121</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="2"/>
+      <c r="F99">
+        <v>11.78</v>
+      </c>
+      <c r="G99" s="2">
+        <v>15.55</v>
+      </c>
+      <c r="H99">
+        <v>1.46</v>
+      </c>
       <c r="I99" s="1">
         <v>64494</v>
       </c>
@@ -3110,7 +3354,9 @@
       <c r="E100" s="1">
         <v>110551</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F100">
+        <v>10.52</v>
+      </c>
       <c r="G100" s="2">
         <v>13.19</v>
       </c>
@@ -3137,7 +3383,9 @@
       <c r="E101" s="1">
         <v>168329</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F101">
+        <v>9.0399999999999991</v>
+      </c>
       <c r="G101" s="2">
         <v>15.45</v>
       </c>
@@ -3164,7 +3412,9 @@
       <c r="E102" s="1">
         <v>194413</v>
       </c>
-      <c r="F102" s="1"/>
+      <c r="F102">
+        <v>7.55</v>
+      </c>
       <c r="G102" s="2">
         <v>13.89</v>
       </c>
@@ -3191,7 +3441,9 @@
       <c r="E103" s="1">
         <v>32409</v>
       </c>
-      <c r="F103" s="1"/>
+      <c r="F103">
+        <v>10.01</v>
+      </c>
       <c r="G103" s="2">
         <v>14.85</v>
       </c>
@@ -3218,7 +3470,9 @@
       <c r="E104" s="1">
         <v>38031</v>
       </c>
-      <c r="F104" s="1"/>
+      <c r="F104">
+        <v>10.08</v>
+      </c>
       <c r="G104" s="2">
         <v>13.82</v>
       </c>
@@ -3245,7 +3499,9 @@
       <c r="E105" s="1">
         <v>45801</v>
       </c>
-      <c r="F105" s="1"/>
+      <c r="F105">
+        <v>8.91</v>
+      </c>
       <c r="G105" s="2">
         <v>12.4</v>
       </c>
@@ -3272,7 +3528,9 @@
       <c r="E106" s="1">
         <v>54399</v>
       </c>
-      <c r="F106" s="1"/>
+      <c r="F106">
+        <v>7.62</v>
+      </c>
       <c r="G106" s="2">
         <v>12.35</v>
       </c>
@@ -3299,7 +3557,9 @@
       <c r="E107" s="1">
         <v>77703</v>
       </c>
-      <c r="F107" s="1"/>
+      <c r="F107">
+        <v>6.97</v>
+      </c>
       <c r="G107" s="2">
         <v>11.73</v>
       </c>
@@ -3326,7 +3586,9 @@
       <c r="E108" s="1">
         <v>95044</v>
       </c>
-      <c r="F108" s="1"/>
+      <c r="F108">
+        <v>10.64</v>
+      </c>
       <c r="G108" s="2">
         <v>13.35</v>
       </c>
@@ -3353,8 +3615,15 @@
       <c r="E109" s="1">
         <v>102256</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="2"/>
+      <c r="F109">
+        <v>10.47</v>
+      </c>
+      <c r="G109" s="2">
+        <v>12.51</v>
+      </c>
+      <c r="H109">
+        <v>1.06</v>
+      </c>
       <c r="I109" s="1">
         <v>75560</v>
       </c>
@@ -3375,7 +3644,9 @@
       <c r="E110" s="1">
         <v>152183</v>
       </c>
-      <c r="F110" s="1"/>
+      <c r="F110">
+        <v>10.029999999999999</v>
+      </c>
       <c r="G110" s="2">
         <v>12.78</v>
       </c>
@@ -3402,7 +3673,9 @@
       <c r="E111" s="1">
         <v>190537</v>
       </c>
-      <c r="F111" s="1"/>
+      <c r="F111">
+        <v>8.6199999999999992</v>
+      </c>
       <c r="G111" s="2">
         <v>13.4</v>
       </c>
@@ -3429,7 +3702,9 @@
       <c r="E112" s="1">
         <v>210362</v>
       </c>
-      <c r="F112" s="1"/>
+      <c r="F112">
+        <v>7.22</v>
+      </c>
       <c r="G112" s="2">
         <v>15.1</v>
       </c>
@@ -3456,7 +3731,9 @@
       <c r="E113" s="1">
         <v>25126</v>
       </c>
-      <c r="F113" s="1"/>
+      <c r="F113">
+        <v>9.32</v>
+      </c>
       <c r="G113" s="2">
         <v>14.65</v>
       </c>
@@ -3483,7 +3760,9 @@
       <c r="E114" s="1">
         <v>30212</v>
       </c>
-      <c r="F114" s="1"/>
+      <c r="F114">
+        <v>9.5500000000000007</v>
+      </c>
       <c r="G114" s="2">
         <v>12.68</v>
       </c>
@@ -3510,7 +3789,9 @@
       <c r="E115" s="1">
         <v>41337</v>
       </c>
-      <c r="F115" s="1"/>
+      <c r="F115">
+        <v>8.1199999999999992</v>
+      </c>
       <c r="G115" s="2">
         <v>10.77</v>
       </c>
@@ -3537,7 +3818,9 @@
       <c r="E116" s="1">
         <v>74613</v>
       </c>
-      <c r="F116" s="1"/>
+      <c r="F116">
+        <v>7.89</v>
+      </c>
       <c r="G116" s="2">
         <v>11.2</v>
       </c>
@@ -3564,7 +3847,9 @@
       <c r="E117" s="1">
         <v>86863</v>
       </c>
-      <c r="F117" s="1"/>
+      <c r="F117">
+        <v>6.68</v>
+      </c>
       <c r="G117" s="2">
         <v>11.08</v>
       </c>
@@ -3591,7 +3876,9 @@
       <c r="E118" s="1">
         <v>112391</v>
       </c>
-      <c r="F118" s="1"/>
+      <c r="F118">
+        <v>10.119999999999999</v>
+      </c>
       <c r="G118" s="2">
         <v>13.85</v>
       </c>
@@ -3618,8 +3905,15 @@
       <c r="E119" s="1">
         <v>135470</v>
       </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="2"/>
+      <c r="F119">
+        <v>10.7</v>
+      </c>
+      <c r="G119" s="2">
+        <v>12.92</v>
+      </c>
+      <c r="H119">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="I119" s="1">
         <v>91803</v>
       </c>
@@ -3640,7 +3934,9 @@
       <c r="E120" s="1">
         <v>179452</v>
       </c>
-      <c r="F120" s="1"/>
+      <c r="F120">
+        <v>9.86</v>
+      </c>
       <c r="G120" s="2">
         <v>15.32</v>
       </c>
@@ -3667,7 +3963,9 @@
       <c r="E121" s="1">
         <v>231547</v>
       </c>
-      <c r="F121" s="1"/>
+      <c r="F121">
+        <v>8.9499999999999993</v>
+      </c>
       <c r="G121" s="2">
         <v>14.56</v>
       </c>
@@ -3694,7 +3992,9 @@
       <c r="E122" s="1">
         <v>255151</v>
       </c>
-      <c r="F122" s="1"/>
+      <c r="F122">
+        <v>7.33</v>
+      </c>
       <c r="G122" s="2">
         <v>15.09</v>
       </c>
@@ -3721,7 +4021,9 @@
       <c r="E123" s="1">
         <v>21977</v>
       </c>
-      <c r="F123" s="1"/>
+      <c r="F123">
+        <v>10.02</v>
+      </c>
       <c r="G123" s="2">
         <v>21.81</v>
       </c>
@@ -3748,7 +4050,9 @@
       <c r="E124" s="1">
         <v>29377</v>
       </c>
-      <c r="F124" s="1"/>
+      <c r="F124">
+        <v>10.039999999999999</v>
+      </c>
       <c r="G124" s="2">
         <v>14.93</v>
       </c>
@@ -3775,7 +4079,9 @@
       <c r="E125" s="1">
         <v>40301</v>
       </c>
-      <c r="F125" s="1"/>
+      <c r="F125">
+        <v>8.2200000000000006</v>
+      </c>
       <c r="G125" s="2">
         <v>12.53</v>
       </c>
@@ -3802,7 +4108,9 @@
       <c r="E126" s="1">
         <v>55965</v>
       </c>
-      <c r="F126" s="1"/>
+      <c r="F126">
+        <v>7.5</v>
+      </c>
       <c r="G126" s="2">
         <v>11.19</v>
       </c>
@@ -3829,7 +4137,9 @@
       <c r="E127" s="1">
         <v>69996</v>
       </c>
-      <c r="F127" s="1"/>
+      <c r="F127">
+        <v>6.07</v>
+      </c>
       <c r="G127" s="2">
         <v>12.42</v>
       </c>
@@ -3856,7 +4166,9 @@
       <c r="E128" s="1">
         <v>91822</v>
       </c>
-      <c r="F128" s="1"/>
+      <c r="F128">
+        <v>10.199999999999999</v>
+      </c>
       <c r="G128" s="2">
         <v>15.55</v>
       </c>
@@ -3883,8 +4195,15 @@
       <c r="E129" s="1">
         <v>109064</v>
       </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="2"/>
+      <c r="F129">
+        <v>9.91</v>
+      </c>
+      <c r="G129" s="2">
+        <v>13.15</v>
+      </c>
+      <c r="H129">
+        <v>0.17</v>
+      </c>
       <c r="I129" s="1">
         <v>83439</v>
       </c>
@@ -3905,7 +4224,9 @@
       <c r="E130" s="1">
         <v>126313</v>
       </c>
-      <c r="F130" s="1"/>
+      <c r="F130">
+        <v>9.4499999999999993</v>
+      </c>
       <c r="G130" s="2">
         <v>13.11</v>
       </c>
@@ -3932,7 +4253,9 @@
       <c r="E131" s="1">
         <v>160751</v>
       </c>
-      <c r="F131" s="1"/>
+      <c r="F131">
+        <v>8.6199999999999992</v>
+      </c>
       <c r="G131" s="2">
         <v>12.97</v>
       </c>
@@ -3959,7 +4282,9 @@
       <c r="E132" s="1">
         <v>192511</v>
       </c>
-      <c r="F132" s="1"/>
+      <c r="F132">
+        <v>6.34</v>
+      </c>
       <c r="G132" s="2">
         <v>13.54</v>
       </c>
